--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAA0AC4-FBAC-714D-BB14-A219BD36372E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915C78A3-E8CE-AA49-A265-3D50A534F892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="7700" windowWidth="34880" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13340" yWindow="4140" windowWidth="28760" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -189,6 +189,54 @@
   </si>
   <si>
     <t>StartConfig/Localhost/StartZoneConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_EN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_CHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_CHT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel.csv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_CHSCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_CHTCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_ENCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_FUI_CHSCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_FUI_CHTCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_FUI_ENCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_FUI.csv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -545,20 +593,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -757,6 +806,111 @@
       </c>
       <c r="E9" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915C78A3-E8CE-AA49-A265-3D50A534F892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D4AA4A-C682-F045-B06D-DB60817BDE91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13340" yWindow="4140" windowWidth="28760" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,19 +224,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LocalizeConfig_FUI_CHSCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_FUI_CHTCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_FUI_ENCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_FUI.csv</t>
+    <t>LocalizeConfig_UI_ENCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_CHTCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_CHSCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI.csv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +596,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>52</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>51</v>
